--- a/nodes_source_analyses/households/households_space_heater_combined_network_gas.converter.xlsx
+++ b/nodes_source_analyses/households/households_space_heater_combined_network_gas.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="0" windowWidth="25680" windowHeight="16120" tabRatio="762"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="25680" windowHeight="16120" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -287,9 +295,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -439,6 +444,10 @@
   <si>
     <t>ETM Library URL</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -447,9 +456,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * #,##0.00\-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -630,11 +639,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1240,7 +1244,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1289,7 +1293,7 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1300,40 +1304,40 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1342,8 +1346,8 @@
     <xf numFmtId="2" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1362,10 +1366,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1391,7 +1395,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1408,7 +1412,7 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1422,7 +1426,7 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1445,11 +1449,11 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1469,7 +1473,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1488,31 +1492,10 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1774,80 +1757,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2118,7 +2036,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2555,52 +2473,52 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -2609,29 +2527,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="88" t="s">
         <v>67</v>
       </c>
       <c r="C9" s="89"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="90"/>
       <c r="C10" s="91"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="90" t="s">
         <v>68</v>
@@ -2640,33 +2558,33 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="90"/>
       <c r="C12" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="90"/>
       <c r="C13" s="93" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="90"/>
       <c r="C14" s="91" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="90"/>
       <c r="C15" s="91"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="90" t="s">
         <v>73</v>
@@ -2675,49 +2593,49 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="90"/>
       <c r="C17" s="95" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="90"/>
       <c r="C18" s="96" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="90"/>
       <c r="C19" s="97" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="98"/>
       <c r="C20" s="99" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="98"/>
       <c r="C21" s="100" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="98"/>
       <c r="C22" s="101" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="98"/>
       <c r="C23" s="102" t="s">
         <v>81</v>
@@ -2726,76 +2644,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="43.25" style="34" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="43.28515625" style="34" customWidth="1"/>
     <col min="10" max="10" width="3" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="34"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="157" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C2" s="158"/>
       <c r="D2" s="158"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="163"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="157"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+    </row>
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2806,7 +2719,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="103"/>
       <c r="C7" s="15" t="s">
         <v>30</v>
@@ -2827,7 +2740,7 @@
       </c>
       <c r="J7" s="109"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2838,10 +2751,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -2851,10 +2764,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="131" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>4</v>
@@ -2867,11 +2780,11 @@
       <c r="G10" s="33"/>
       <c r="H10" s="27"/>
       <c r="I10" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
       <c r="C11" s="33" t="s">
         <v>32</v>
@@ -2891,7 +2804,7 @@
       <c r="J11" s="110"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
         <v>34</v>
@@ -2911,7 +2824,7 @@
       <c r="J12" s="110"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>9</v>
@@ -2931,7 +2844,7 @@
       <c r="J13" s="110"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>37</v>
@@ -2951,7 +2864,7 @@
       <c r="J14" s="110"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>38</v>
@@ -2971,7 +2884,7 @@
       <c r="J15" s="110"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>39</v>
@@ -2992,7 +2905,7 @@
       </c>
       <c r="J16" s="110"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>40</v>
@@ -3014,7 +2927,7 @@
       </c>
       <c r="J17" s="110"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="37"/>
       <c r="C18" s="85"/>
       <c r="D18" s="106"/>
@@ -3025,10 +2938,10 @@
       <c r="I18" s="32"/>
       <c r="J18" s="110"/>
     </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="106"/>
       <c r="E19" s="107"/>
@@ -3038,7 +2951,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="110"/>
     </row>
-    <row r="20" spans="2:10" ht="16" thickBot="1">
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
       <c r="C20" s="33" t="s">
         <v>41</v>
@@ -3056,11 +2969,11 @@
       </c>
       <c r="H20" s="33"/>
       <c r="I20" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J20" s="110"/>
     </row>
-    <row r="21" spans="2:10" ht="16" thickBot="1">
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="33" t="s">
         <v>42</v>
@@ -3081,7 +2994,7 @@
       </c>
       <c r="J21" s="110"/>
     </row>
-    <row r="22" spans="2:10" ht="16" thickBot="1">
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
       <c r="C22" s="33" t="s">
         <v>11</v>
@@ -3102,7 +3015,7 @@
       </c>
       <c r="J22" s="110"/>
     </row>
-    <row r="23" spans="2:10" ht="16" thickBot="1">
+    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="33" t="s">
         <v>43</v>
@@ -3123,7 +3036,7 @@
       </c>
       <c r="J23" s="110"/>
     </row>
-    <row r="24" spans="2:10" ht="16" thickBot="1">
+    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="33" t="s">
         <v>44</v>
@@ -3145,7 +3058,7 @@
       </c>
       <c r="J24" s="110"/>
     </row>
-    <row r="25" spans="2:10" ht="16" thickBot="1">
+    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
         <v>45</v>
@@ -3166,7 +3079,7 @@
       </c>
       <c r="J25" s="110"/>
     </row>
-    <row r="26" spans="2:10" ht="16" thickBot="1">
+    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>46</v>
@@ -3187,7 +3100,7 @@
       </c>
       <c r="J26" s="110"/>
     </row>
-    <row r="27" spans="2:10" ht="16" thickBot="1">
+    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>49</v>
@@ -3208,7 +3121,7 @@
       </c>
       <c r="J27" s="110"/>
     </row>
-    <row r="28" spans="2:10" ht="16" thickBot="1">
+    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
         <v>36</v>
@@ -3227,7 +3140,7 @@
       </c>
       <c r="J28" s="110"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="37"/>
       <c r="C29" s="33"/>
       <c r="D29" s="19"/>
@@ -3238,7 +3151,7 @@
       <c r="I29" s="32"/>
       <c r="J29" s="110"/>
     </row>
-    <row r="30" spans="2:10" ht="16" thickBot="1">
+    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="14" t="s">
         <v>7</v>
@@ -3251,7 +3164,7 @@
       <c r="I30" s="32"/>
       <c r="J30" s="110"/>
     </row>
-    <row r="31" spans="2:10" ht="16" thickBot="1">
+    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
         <v>35</v>
@@ -3272,7 +3185,7 @@
       </c>
       <c r="J31" s="110"/>
     </row>
-    <row r="32" spans="2:10" ht="16" thickBot="1">
+    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
         <v>47</v>
@@ -3293,7 +3206,7 @@
       </c>
       <c r="J32" s="110"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
         <v>48</v>
@@ -3311,11 +3224,11 @@
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="156" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J33" s="110"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
         <v>33</v>
@@ -3334,7 +3247,7 @@
       </c>
       <c r="J34" s="110"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="37"/>
       <c r="C35" s="45" t="s">
         <v>59</v>
@@ -3351,7 +3264,7 @@
       </c>
       <c r="J35" s="110"/>
     </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="37"/>
       <c r="C36" s="45" t="s">
         <v>60</v>
@@ -3368,7 +3281,7 @@
       </c>
       <c r="J36" s="110"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="37"/>
       <c r="C37" s="45" t="s">
         <v>62</v>
@@ -3385,7 +3298,7 @@
       </c>
       <c r="J37" s="110"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="37"/>
       <c r="C38" s="45" t="s">
         <v>63</v>
@@ -3402,7 +3315,7 @@
       </c>
       <c r="J38" s="110"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="37"/>
       <c r="C39" s="45" t="s">
         <v>61</v>
@@ -3419,7 +3332,7 @@
       </c>
       <c r="J39" s="110"/>
     </row>
-    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="38"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
@@ -3432,47 +3345,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="B2:G4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3487,28 +3363,27 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="70" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="70" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="70" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="70" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="70" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="70" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="70" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="70" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="71" customWidth="1"/>
-    <col min="10" max="10" width="2.875" style="71" customWidth="1"/>
-    <col min="11" max="11" width="7.625" style="71" customWidth="1"/>
-    <col min="12" max="12" width="2.75" style="71" customWidth="1"/>
-    <col min="13" max="13" width="7.875" style="71" customWidth="1"/>
-    <col min="14" max="14" width="2.5" style="71" customWidth="1"/>
-    <col min="15" max="15" width="68.625" style="70" customWidth="1"/>
-    <col min="16" max="16384" width="10.625" style="70"/>
+    <col min="1" max="2" width="3.42578125" style="70" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="70" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="70" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="70" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="70" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="70" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="70" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="71" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="71" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="71" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="71" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="71" customWidth="1"/>
+    <col min="14" max="14" width="2.42578125" style="71" customWidth="1"/>
+    <col min="15" max="15" width="68.5703125" style="70" customWidth="1"/>
+    <col min="16" max="16384" width="10.7109375" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="72"/>
       <c r="C2" s="73"/>
       <c r="D2" s="73"/>
@@ -3524,10 +3399,10 @@
       <c r="N2" s="74"/>
       <c r="O2" s="73"/>
     </row>
-    <row r="3" spans="2:15" s="21" customFormat="1">
+    <row r="3" spans="2:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="114" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3539,22 +3414,22 @@
       </c>
       <c r="H3" s="114"/>
       <c r="I3" s="66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J3" s="65"/>
       <c r="K3" s="66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L3" s="65"/>
       <c r="M3" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N3" s="65"/>
       <c r="O3" s="114" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="75"/>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
@@ -3570,10 +3445,10 @@
       <c r="N4" s="113"/>
       <c r="O4" s="135"/>
     </row>
-    <row r="5" spans="2:15" ht="16" thickBot="1">
+    <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="75"/>
       <c r="C5" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3588,10 +3463,10 @@
       <c r="N5" s="10"/>
       <c r="O5" s="69"/>
     </row>
-    <row r="6" spans="2:15" ht="16" thickBot="1">
+    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="75"/>
       <c r="C6" s="139" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="78"/>
       <c r="E6" s="78"/>
@@ -3619,10 +3494,10 @@
       <c r="N6" s="77"/>
       <c r="O6" s="69"/>
     </row>
-    <row r="7" spans="2:15" ht="16" thickBot="1">
+    <row r="7" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="75"/>
       <c r="C7" s="134" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="78"/>
       <c r="E7" s="78"/>
@@ -3650,10 +3525,10 @@
       </c>
       <c r="N7" s="81"/>
       <c r="O7" s="140" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="75"/>
       <c r="C8" s="84"/>
       <c r="D8" s="84"/>
@@ -3668,10 +3543,10 @@
       <c r="M8" s="82"/>
       <c r="N8" s="82"/>
       <c r="O8" s="142" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="16" thickBot="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="75"/>
       <c r="C9" s="29" t="s">
         <v>7</v>
@@ -3689,7 +3564,7 @@
       <c r="N9" s="12"/>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="2:15" ht="16" thickBot="1">
+    <row r="10" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="75"/>
       <c r="C10" s="86" t="s">
         <v>5</v>
@@ -3715,7 +3590,7 @@
       <c r="N10" s="83"/>
       <c r="O10" s="119"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="75"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -3731,10 +3606,10 @@
       <c r="N11" s="83"/>
       <c r="O11" s="69"/>
     </row>
-    <row r="12" spans="2:15" ht="16" thickBot="1">
+    <row r="12" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="75"/>
       <c r="C12" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -3748,13 +3623,13 @@
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="140" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="16" thickBot="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="75"/>
       <c r="C13" s="111" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -3782,13 +3657,13 @@
       </c>
       <c r="N13" s="82"/>
       <c r="O13" s="30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="16" thickBot="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="75"/>
       <c r="C14" s="118" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -3815,11 +3690,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3834,22 +3704,22 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="47" customWidth="1"/>
-    <col min="11" max="11" width="41.125" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="46"/>
+    <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="47" customWidth="1"/>
+    <col min="11" max="11" width="41.140625" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -3861,7 +3731,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>21</v>
@@ -3875,7 +3745,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -3887,7 +3757,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>28</v>
@@ -3903,19 +3773,19 @@
         <v>29</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>58</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K5" s="57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -3927,41 +3797,41 @@
       <c r="J6" s="53"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="51"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
       <c r="E7" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="54"/>
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>
       <c r="I7" s="54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="53"/>
       <c r="K7" s="52"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="51"/>
       <c r="C8" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="59"/>
       <c r="E8" s="54"/>
       <c r="F8" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" s="55"/>
       <c r="H8" s="55"/>
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
       <c r="K8" s="67" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="51"/>
       <c r="C9" s="59" t="s">
         <v>65</v>
@@ -3969,17 +3839,17 @@
       <c r="D9" s="60"/>
       <c r="E9" s="54"/>
       <c r="F9" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" s="55"/>
       <c r="H9" s="55"/>
       <c r="I9" s="55"/>
       <c r="J9" s="55"/>
       <c r="K9" s="68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="51"/>
       <c r="C10" s="59"/>
       <c r="D10" s="60"/>
@@ -3991,41 +3861,41 @@
       <c r="J10" s="55"/>
       <c r="K10" s="68"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="51"/>
       <c r="C11" s="59"/>
       <c r="D11" s="60"/>
       <c r="E11" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="61"/>
       <c r="G11" s="55"/>
       <c r="H11" s="55"/>
       <c r="I11" s="55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J11" s="55"/>
       <c r="K11" s="68"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="51"/>
       <c r="C12" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="59"/>
       <c r="F12" s="61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="62"/>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
       <c r="K12" s="59" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="51"/>
       <c r="C13" s="60"/>
       <c r="D13" s="64"/>
@@ -4037,41 +3907,41 @@
       <c r="J13" s="62"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="51"/>
       <c r="C14" s="59"/>
       <c r="D14" s="64"/>
       <c r="E14" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" s="61"/>
       <c r="G14" s="62"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J14" s="62"/>
       <c r="K14" s="59"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="51"/>
       <c r="C15" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="64"/>
       <c r="E15" s="59"/>
       <c r="F15" s="61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G15" s="62"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
       <c r="J15" s="62"/>
       <c r="K15" s="59" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="51"/>
       <c r="C16" s="60"/>
       <c r="D16" s="64"/>
@@ -4083,30 +3953,30 @@
       <c r="J16" s="62"/>
       <c r="K16" s="59"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="51"/>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
       <c r="E17" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G17" s="62"/>
       <c r="H17" s="62"/>
       <c r="I17" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J17" s="62"/>
       <c r="K17" s="63" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="51"/>
       <c r="C18" s="60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="64"/>
       <c r="F18" s="61"/>
@@ -4116,7 +3986,7 @@
       <c r="J18" s="62"/>
       <c r="K18" s="59"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="51"/>
       <c r="C19" s="84" t="s">
         <v>5</v>
@@ -4132,11 +4002,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4151,20 +4016,20 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="123" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="123" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="123" customWidth="1"/>
-    <col min="4" max="6" width="10.625" style="123"/>
-    <col min="7" max="7" width="10.625" style="151"/>
-    <col min="8" max="9" width="10.625" style="123"/>
+    <col min="1" max="1" width="3.5703125" style="123" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="123" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="123" customWidth="1"/>
+    <col min="4" max="6" width="10.7109375" style="123"/>
+    <col min="7" max="7" width="10.7109375" style="151"/>
+    <col min="8" max="9" width="10.7109375" style="123"/>
     <col min="10" max="10" width="53" style="123" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="123"/>
+    <col min="11" max="16384" width="10.7109375" style="123"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16" thickBot="1"/>
-    <row r="3" spans="2:10">
+    <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="124"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -4175,13 +4040,13 @@
       <c r="I3" s="16"/>
       <c r="J3" s="125"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="103"/>
       <c r="C4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -4190,7 +4055,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="127"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="128"/>
       <c r="C5" s="126"/>
       <c r="D5" s="126"/>
@@ -4201,7 +4066,7 @@
       <c r="I5" s="126"/>
       <c r="J5" s="129"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="128"/>
       <c r="C6" s="126"/>
       <c r="D6" s="126"/>
@@ -4212,7 +4077,7 @@
       <c r="I6" s="126"/>
       <c r="J6" s="129"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="128"/>
       <c r="C7" s="126"/>
       <c r="D7" s="126"/>
@@ -4223,10 +4088,10 @@
       <c r="I7" s="126"/>
       <c r="J7" s="129"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="128"/>
       <c r="C8" s="141" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="126"/>
       <c r="E8" s="126"/>
@@ -4236,7 +4101,7 @@
       <c r="I8" s="126"/>
       <c r="J8" s="129"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="128"/>
       <c r="C9" s="126"/>
       <c r="D9" s="126"/>
@@ -4247,7 +4112,7 @@
       <c r="I9" s="126"/>
       <c r="J9" s="129"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="128"/>
       <c r="C10" s="126"/>
       <c r="D10" s="126"/>
@@ -4258,7 +4123,7 @@
       <c r="I10" s="126"/>
       <c r="J10" s="129"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="128"/>
       <c r="C11" s="126"/>
       <c r="D11" s="126"/>
@@ -4269,7 +4134,7 @@
       <c r="I11" s="126"/>
       <c r="J11" s="129"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="128"/>
       <c r="C12" s="126"/>
       <c r="D12" s="126"/>
@@ -4278,13 +4143,13 @@
         <v>799</v>
       </c>
       <c r="G12" s="154" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12" s="126"/>
       <c r="I12" s="126"/>
       <c r="J12" s="129"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="128"/>
       <c r="C13" s="126"/>
       <c r="D13" s="126"/>
@@ -4295,7 +4160,7 @@
       <c r="I13" s="126"/>
       <c r="J13" s="129"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="128"/>
       <c r="C14" s="126"/>
       <c r="D14" s="126"/>
@@ -4306,7 +4171,7 @@
       <c r="I14" s="126"/>
       <c r="J14" s="129"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="128"/>
       <c r="C15" s="126"/>
       <c r="D15" s="126"/>
@@ -4317,7 +4182,7 @@
       <c r="I15" s="126"/>
       <c r="J15" s="129"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="128"/>
       <c r="C16" s="126"/>
       <c r="D16" s="126"/>
@@ -4328,7 +4193,7 @@
       <c r="I16" s="126"/>
       <c r="J16" s="129"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="128"/>
       <c r="C17" s="126"/>
       <c r="D17" s="126"/>
@@ -4339,7 +4204,7 @@
       <c r="I17" s="126"/>
       <c r="J17" s="129"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="128"/>
       <c r="C18" s="126"/>
       <c r="D18" s="126"/>
@@ -4350,7 +4215,7 @@
       <c r="I18" s="126"/>
       <c r="J18" s="129"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="128"/>
       <c r="C19" s="126"/>
       <c r="D19" s="126"/>
@@ -4361,7 +4226,7 @@
       <c r="I19" s="126"/>
       <c r="J19" s="129"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="128"/>
       <c r="C20" s="126"/>
       <c r="D20" s="126"/>
@@ -4372,7 +4237,7 @@
       <c r="I20" s="126"/>
       <c r="J20" s="129"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="128"/>
       <c r="C21" s="126"/>
       <c r="D21" s="126"/>
@@ -4383,7 +4248,7 @@
       <c r="I21" s="126"/>
       <c r="J21" s="129"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="128"/>
       <c r="C22" s="126"/>
       <c r="D22" s="126"/>
@@ -4394,7 +4259,7 @@
       <c r="I22" s="126"/>
       <c r="J22" s="129"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="128"/>
       <c r="C23" s="126"/>
       <c r="D23" s="126"/>
@@ -4405,7 +4270,7 @@
       <c r="I23" s="126"/>
       <c r="J23" s="129"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="128"/>
       <c r="C24" s="126"/>
       <c r="D24" s="126"/>
@@ -4416,7 +4281,7 @@
       <c r="I24" s="126"/>
       <c r="J24" s="129"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="128"/>
       <c r="C25" s="126"/>
       <c r="D25" s="126"/>
@@ -4427,7 +4292,7 @@
       <c r="I25" s="126"/>
       <c r="J25" s="129"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="128"/>
       <c r="C26" s="126"/>
       <c r="D26" s="126"/>
@@ -4438,7 +4303,7 @@
       <c r="I26" s="126"/>
       <c r="J26" s="129"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="128"/>
       <c r="C27" s="126"/>
       <c r="D27" s="126"/>
@@ -4449,7 +4314,7 @@
       <c r="I27" s="126"/>
       <c r="J27" s="129"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="128"/>
       <c r="C28" s="126"/>
       <c r="D28" s="126"/>
@@ -4458,13 +4323,13 @@
         <v>15</v>
       </c>
       <c r="G28" s="155" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H28" s="126"/>
       <c r="I28" s="126"/>
       <c r="J28" s="129"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="128"/>
       <c r="C29" s="126"/>
       <c r="D29" s="126"/>
@@ -4475,7 +4340,7 @@
       <c r="I29" s="126"/>
       <c r="J29" s="129"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="128"/>
       <c r="C30" s="126"/>
       <c r="D30" s="126"/>
@@ -4486,7 +4351,7 @@
       <c r="I30" s="126"/>
       <c r="J30" s="129"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="128"/>
       <c r="C31" s="126"/>
       <c r="D31" s="126"/>
@@ -4497,7 +4362,7 @@
       <c r="I31" s="126"/>
       <c r="J31" s="129"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="128"/>
       <c r="C32" s="126"/>
       <c r="D32" s="126"/>
@@ -4508,7 +4373,7 @@
       <c r="I32" s="126"/>
       <c r="J32" s="129"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="128"/>
       <c r="C33" s="126"/>
       <c r="D33" s="126"/>
@@ -4519,7 +4384,7 @@
       <c r="I33" s="126"/>
       <c r="J33" s="129"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="128"/>
       <c r="C34" s="126"/>
       <c r="D34" s="126"/>
@@ -4530,7 +4395,7 @@
       <c r="I34" s="126"/>
       <c r="J34" s="129"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="128"/>
       <c r="C35" s="126"/>
       <c r="D35" s="126"/>
@@ -4541,7 +4406,7 @@
       <c r="I35" s="126"/>
       <c r="J35" s="129"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="128"/>
       <c r="C36" s="126"/>
       <c r="D36" s="126"/>
@@ -4550,13 +4415,13 @@
         <v>1064.95</v>
       </c>
       <c r="G36" s="154" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H36" s="126"/>
       <c r="I36" s="126"/>
       <c r="J36" s="129"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="128"/>
       <c r="C37" s="126"/>
       <c r="D37" s="126"/>
@@ -4567,7 +4432,7 @@
       <c r="I37" s="126"/>
       <c r="J37" s="129"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="128"/>
       <c r="C38" s="126"/>
       <c r="D38" s="126"/>
@@ -4578,7 +4443,7 @@
       <c r="I38" s="126"/>
       <c r="J38" s="129"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="128"/>
       <c r="C39" s="126"/>
       <c r="D39" s="126"/>
@@ -4589,7 +4454,7 @@
       <c r="I39" s="126"/>
       <c r="J39" s="129"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="128"/>
       <c r="C40" s="126"/>
       <c r="D40" s="126"/>
@@ -4600,7 +4465,7 @@
       <c r="I40" s="126"/>
       <c r="J40" s="129"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="128"/>
       <c r="C41" s="126"/>
       <c r="D41" s="126"/>
@@ -4611,7 +4476,7 @@
       <c r="I41" s="126"/>
       <c r="J41" s="129"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="128"/>
       <c r="C42" s="126"/>
       <c r="D42" s="126"/>
@@ -4622,7 +4487,7 @@
       <c r="I42" s="126"/>
       <c r="J42" s="129"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="128"/>
       <c r="C43" s="126"/>
       <c r="D43" s="126"/>
@@ -4633,7 +4498,7 @@
       <c r="I43" s="126"/>
       <c r="J43" s="129"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="128"/>
       <c r="C44" s="126"/>
       <c r="D44" s="126"/>
@@ -4644,7 +4509,7 @@
       <c r="I44" s="126"/>
       <c r="J44" s="129"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="128"/>
       <c r="C45" s="126"/>
       <c r="D45" s="126"/>
@@ -4655,7 +4520,7 @@
       <c r="I45" s="126"/>
       <c r="J45" s="129"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="128"/>
       <c r="C46" s="126"/>
       <c r="D46" s="126"/>
@@ -4666,7 +4531,7 @@
       <c r="I46" s="126"/>
       <c r="J46" s="129"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="128"/>
       <c r="C47" s="126"/>
       <c r="D47" s="126"/>
@@ -4677,7 +4542,7 @@
       <c r="I47" s="126"/>
       <c r="J47" s="129"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="128"/>
       <c r="C48" s="126"/>
       <c r="D48" s="126"/>
@@ -4688,7 +4553,7 @@
       <c r="I48" s="126"/>
       <c r="J48" s="129"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="128"/>
       <c r="C49" s="126"/>
       <c r="D49" s="126"/>
@@ -4699,7 +4564,7 @@
       <c r="I49" s="126"/>
       <c r="J49" s="129"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="128"/>
       <c r="C50" s="126"/>
       <c r="D50" s="126"/>
@@ -4710,7 +4575,7 @@
       <c r="I50" s="126"/>
       <c r="J50" s="129"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="128"/>
       <c r="C51" s="126"/>
       <c r="D51" s="126"/>
@@ -4721,7 +4586,7 @@
       <c r="I51" s="126"/>
       <c r="J51" s="129"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="128"/>
       <c r="C52" s="126"/>
       <c r="D52" s="126"/>
@@ -4732,7 +4597,7 @@
       <c r="I52" s="126"/>
       <c r="J52" s="129"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="128"/>
       <c r="C53" s="126"/>
       <c r="D53" s="126"/>
@@ -4743,7 +4608,7 @@
       <c r="I53" s="126"/>
       <c r="J53" s="129"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="128"/>
       <c r="C54" s="126"/>
       <c r="D54" s="126"/>
@@ -4752,13 +4617,13 @@
         <v>849.89</v>
       </c>
       <c r="G54" s="154" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H54" s="126"/>
       <c r="I54" s="126"/>
       <c r="J54" s="129"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="128"/>
       <c r="C55" s="126"/>
       <c r="D55" s="126"/>
@@ -4769,7 +4634,7 @@
       <c r="I55" s="126"/>
       <c r="J55" s="129"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="128"/>
       <c r="C56" s="126"/>
       <c r="D56" s="126"/>
@@ -4780,7 +4645,7 @@
       <c r="I56" s="126"/>
       <c r="J56" s="129"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="128"/>
       <c r="C57" s="126"/>
       <c r="D57" s="126"/>
@@ -4791,7 +4656,7 @@
       <c r="I57" s="126"/>
       <c r="J57" s="129"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="128"/>
       <c r="C58" s="126"/>
       <c r="D58" s="126"/>
@@ -4802,7 +4667,7 @@
       <c r="I58" s="126"/>
       <c r="J58" s="129"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="128"/>
       <c r="C59" s="126"/>
       <c r="D59" s="126"/>
@@ -4813,7 +4678,7 @@
       <c r="I59" s="126"/>
       <c r="J59" s="129"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="128"/>
       <c r="C60" s="126"/>
       <c r="D60" s="126"/>
@@ -4824,7 +4689,7 @@
       <c r="I60" s="126"/>
       <c r="J60" s="129"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="128"/>
       <c r="C61" s="126"/>
       <c r="D61" s="126"/>
@@ -4835,7 +4700,7 @@
       <c r="I61" s="126"/>
       <c r="J61" s="129"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="128"/>
       <c r="C62" s="126"/>
       <c r="D62" s="126"/>
@@ -4846,7 +4711,7 @@
       <c r="I62" s="126"/>
       <c r="J62" s="129"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="128"/>
       <c r="C63" s="126"/>
       <c r="D63" s="126"/>
@@ -4857,7 +4722,7 @@
       <c r="I63" s="126"/>
       <c r="J63" s="129"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="128"/>
       <c r="C64" s="126"/>
       <c r="D64" s="126"/>
@@ -4868,7 +4733,7 @@
       <c r="I64" s="126"/>
       <c r="J64" s="129"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="128"/>
       <c r="C65" s="126"/>
       <c r="D65" s="126"/>
@@ -4879,7 +4744,7 @@
       <c r="I65" s="126"/>
       <c r="J65" s="129"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="128"/>
       <c r="C66" s="126"/>
       <c r="D66" s="126"/>
@@ -4890,7 +4755,7 @@
       <c r="I66" s="126"/>
       <c r="J66" s="129"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" s="128"/>
       <c r="C67" s="126"/>
       <c r="D67" s="126"/>
@@ -4901,10 +4766,10 @@
       <c r="I67" s="126"/>
       <c r="J67" s="129"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B68" s="128"/>
       <c r="C68" s="141" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D68" s="126"/>
       <c r="E68" s="126"/>
@@ -4914,7 +4779,7 @@
       <c r="I68" s="126"/>
       <c r="J68" s="129"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B69" s="128"/>
       <c r="C69" s="126"/>
       <c r="D69" s="126"/>
@@ -4925,7 +4790,7 @@
       <c r="I69" s="126"/>
       <c r="J69" s="129"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B70" s="128"/>
       <c r="C70" s="126"/>
       <c r="D70" s="126"/>
@@ -4940,7 +4805,7 @@
       <c r="I70" s="126"/>
       <c r="J70" s="129"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B71" s="128"/>
       <c r="C71" s="126"/>
       <c r="D71" s="126"/>
@@ -4951,7 +4816,7 @@
       <c r="I71" s="126"/>
       <c r="J71" s="129"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B72" s="128"/>
       <c r="C72" s="126"/>
       <c r="D72" s="126"/>
@@ -4962,7 +4827,7 @@
       <c r="I72" s="126"/>
       <c r="J72" s="129"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B73" s="128"/>
       <c r="C73" s="126"/>
       <c r="D73" s="126"/>
@@ -4973,7 +4838,7 @@
       <c r="I73" s="126"/>
       <c r="J73" s="129"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B74" s="128"/>
       <c r="C74" s="126"/>
       <c r="D74" s="126"/>
@@ -4984,7 +4849,7 @@
       <c r="I74" s="126"/>
       <c r="J74" s="129"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B75" s="128"/>
       <c r="C75" s="126"/>
       <c r="D75" s="126"/>
@@ -4995,7 +4860,7 @@
       <c r="I75" s="126"/>
       <c r="J75" s="129"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B76" s="128"/>
       <c r="C76" s="126"/>
       <c r="D76" s="126"/>
@@ -5006,7 +4871,7 @@
       <c r="I76" s="126"/>
       <c r="J76" s="129"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B77" s="128"/>
       <c r="C77" s="126"/>
       <c r="D77" s="126"/>
@@ -5017,7 +4882,7 @@
       <c r="I77" s="126"/>
       <c r="J77" s="129"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B78" s="128"/>
       <c r="C78" s="126"/>
       <c r="D78" s="126"/>
@@ -5028,7 +4893,7 @@
       <c r="I78" s="126"/>
       <c r="J78" s="129"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B79" s="128"/>
       <c r="C79" s="126"/>
       <c r="D79" s="126"/>
@@ -5039,7 +4904,7 @@
       <c r="I79" s="126"/>
       <c r="J79" s="129"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B80" s="128"/>
       <c r="C80" s="126"/>
       <c r="D80" s="126"/>
@@ -5050,7 +4915,7 @@
       <c r="I80" s="126"/>
       <c r="J80" s="129"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B81" s="128"/>
       <c r="C81" s="126"/>
       <c r="D81" s="126"/>
@@ -5061,7 +4926,7 @@
       <c r="I81" s="126"/>
       <c r="J81" s="129"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B82" s="128"/>
       <c r="C82" s="126"/>
       <c r="D82" s="126"/>
@@ -5072,7 +4937,7 @@
       <c r="I82" s="126"/>
       <c r="J82" s="129"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B83" s="128"/>
       <c r="C83" s="126"/>
       <c r="D83" s="126"/>
@@ -5083,7 +4948,7 @@
       <c r="I83" s="126"/>
       <c r="J83" s="129"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B84" s="128"/>
       <c r="C84" s="126"/>
       <c r="D84" s="126"/>
@@ -5093,12 +4958,12 @@
         <v>23.1</v>
       </c>
       <c r="H84" s="149" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I84" s="126"/>
       <c r="J84" s="129"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B85" s="128"/>
       <c r="C85" s="126"/>
       <c r="D85" s="126"/>
@@ -5109,7 +4974,7 @@
       <c r="I85" s="126"/>
       <c r="J85" s="129"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B86" s="128"/>
       <c r="C86" s="126"/>
       <c r="D86" s="126"/>
@@ -5120,7 +4985,7 @@
       <c r="I86" s="126"/>
       <c r="J86" s="129"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B87" s="128"/>
       <c r="C87" s="126"/>
       <c r="D87" s="126"/>
@@ -5131,7 +4996,7 @@
       <c r="I87" s="126"/>
       <c r="J87" s="129"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B88" s="128"/>
       <c r="C88" s="126"/>
       <c r="D88" s="126"/>
@@ -5142,7 +5007,7 @@
       <c r="I88" s="126"/>
       <c r="J88" s="129"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B89" s="128"/>
       <c r="C89" s="126"/>
       <c r="D89" s="126"/>
@@ -5153,7 +5018,7 @@
       <c r="I89" s="126"/>
       <c r="J89" s="129"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B90" s="128"/>
       <c r="C90" s="126"/>
       <c r="D90" s="126"/>
@@ -5164,7 +5029,7 @@
       <c r="I90" s="126"/>
       <c r="J90" s="129"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B91" s="128"/>
       <c r="C91" s="126"/>
       <c r="D91" s="126"/>
@@ -5179,7 +5044,7 @@
       <c r="I91" s="126"/>
       <c r="J91" s="129"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B92" s="128"/>
       <c r="C92" s="126"/>
       <c r="D92" s="126"/>
@@ -5190,7 +5055,7 @@
       <c r="I92" s="126"/>
       <c r="J92" s="129"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B93" s="128"/>
       <c r="C93" s="126"/>
       <c r="D93" s="126"/>
@@ -5201,7 +5066,7 @@
       <c r="I93" s="126"/>
       <c r="J93" s="129"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B94" s="128"/>
       <c r="C94" s="126"/>
       <c r="D94" s="126"/>
@@ -5212,7 +5077,7 @@
       <c r="I94" s="126"/>
       <c r="J94" s="129"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B95" s="128"/>
       <c r="C95" s="126"/>
       <c r="D95" s="126"/>
@@ -5223,7 +5088,7 @@
       <c r="I95" s="126"/>
       <c r="J95" s="129"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B96" s="128"/>
       <c r="C96" s="126"/>
       <c r="D96" s="126"/>
@@ -5234,7 +5099,7 @@
       <c r="I96" s="126"/>
       <c r="J96" s="129"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B97" s="128"/>
       <c r="C97" s="126"/>
       <c r="D97" s="126"/>
@@ -5245,7 +5110,7 @@
       <c r="I97" s="126"/>
       <c r="J97" s="129"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B98" s="128"/>
       <c r="C98" s="126"/>
       <c r="D98" s="126"/>
@@ -5256,7 +5121,7 @@
       <c r="I98" s="126"/>
       <c r="J98" s="129"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B99" s="128"/>
       <c r="C99" s="126"/>
       <c r="D99" s="126"/>
@@ -5267,7 +5132,7 @@
       <c r="I99" s="126"/>
       <c r="J99" s="129"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B100" s="128"/>
       <c r="C100" s="126"/>
       <c r="D100" s="126"/>
@@ -5278,7 +5143,7 @@
       <c r="I100" s="126"/>
       <c r="J100" s="129"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B101" s="128"/>
       <c r="C101" s="126"/>
       <c r="D101" s="126"/>
@@ -5289,7 +5154,7 @@
       <c r="I101" s="126"/>
       <c r="J101" s="129"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B102" s="128"/>
       <c r="C102" s="126"/>
       <c r="D102" s="126"/>
@@ -5300,7 +5165,7 @@
       <c r="I102" s="126"/>
       <c r="J102" s="129"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B103" s="128"/>
       <c r="C103" s="126"/>
       <c r="D103" s="126"/>
@@ -5311,7 +5176,7 @@
       <c r="I103" s="126"/>
       <c r="J103" s="129"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B104" s="128"/>
       <c r="C104" s="126"/>
       <c r="D104" s="126"/>
@@ -5322,7 +5187,7 @@
       <c r="I104" s="126"/>
       <c r="J104" s="129"/>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B105" s="128"/>
       <c r="C105" s="126"/>
       <c r="D105" s="126"/>
@@ -5333,7 +5198,7 @@
       <c r="I105" s="126"/>
       <c r="J105" s="129"/>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B106" s="128"/>
       <c r="C106" s="126"/>
       <c r="D106" s="126"/>
@@ -5344,7 +5209,7 @@
       <c r="I106" s="126"/>
       <c r="J106" s="129"/>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B107" s="128"/>
       <c r="C107" s="126"/>
       <c r="D107" s="126"/>
@@ -5355,7 +5220,7 @@
       <c r="I107" s="126"/>
       <c r="J107" s="129"/>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B108" s="128"/>
       <c r="C108" s="126"/>
       <c r="D108" s="126"/>
@@ -5365,12 +5230,12 @@
         <v>22.4</v>
       </c>
       <c r="H108" s="149" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I108" s="126"/>
       <c r="J108" s="129"/>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B109" s="128"/>
       <c r="C109" s="126"/>
       <c r="D109" s="126"/>
@@ -5381,7 +5246,7 @@
       <c r="I109" s="126"/>
       <c r="J109" s="129"/>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B110" s="128"/>
       <c r="C110" s="126"/>
       <c r="D110" s="126"/>
@@ -5392,7 +5257,7 @@
       <c r="I110" s="126"/>
       <c r="J110" s="129"/>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B111" s="128"/>
       <c r="C111" s="126"/>
       <c r="D111" s="126"/>
@@ -5403,7 +5268,7 @@
       <c r="I111" s="126"/>
       <c r="J111" s="129"/>
     </row>
-    <row r="112" spans="2:10">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B112" s="128"/>
       <c r="C112" s="126"/>
       <c r="D112" s="126"/>
@@ -5414,7 +5279,7 @@
       <c r="I112" s="126"/>
       <c r="J112" s="129"/>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B113" s="128"/>
       <c r="C113" s="126"/>
       <c r="D113" s="126"/>
@@ -5425,7 +5290,7 @@
       <c r="I113" s="126"/>
       <c r="J113" s="129"/>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B114" s="128"/>
       <c r="C114" s="126"/>
       <c r="D114" s="126"/>
@@ -5436,7 +5301,7 @@
       <c r="I114" s="126"/>
       <c r="J114" s="129"/>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B115" s="128"/>
       <c r="C115" s="126"/>
       <c r="D115" s="126"/>
@@ -5447,7 +5312,7 @@
       <c r="I115" s="126"/>
       <c r="J115" s="129"/>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B116" s="128"/>
       <c r="C116" s="126"/>
       <c r="D116" s="126"/>
@@ -5458,7 +5323,7 @@
       <c r="I116" s="126"/>
       <c r="J116" s="129"/>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B117" s="128"/>
       <c r="C117" s="126"/>
       <c r="D117" s="126"/>
@@ -5473,7 +5338,7 @@
       <c r="I117" s="126"/>
       <c r="J117" s="129"/>
     </row>
-    <row r="118" spans="2:10">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B118" s="128"/>
       <c r="C118" s="126"/>
       <c r="D118" s="126"/>
@@ -5484,7 +5349,7 @@
       <c r="I118" s="126"/>
       <c r="J118" s="129"/>
     </row>
-    <row r="119" spans="2:10">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B119" s="128"/>
       <c r="C119" s="126"/>
       <c r="D119" s="126"/>
@@ -5495,7 +5360,7 @@
       <c r="I119" s="126"/>
       <c r="J119" s="129"/>
     </row>
-    <row r="120" spans="2:10">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B120" s="128"/>
       <c r="C120" s="126"/>
       <c r="D120" s="126"/>
@@ -5506,7 +5371,7 @@
       <c r="I120" s="126"/>
       <c r="J120" s="129"/>
     </row>
-    <row r="121" spans="2:10">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B121" s="128"/>
       <c r="C121" s="126"/>
       <c r="D121" s="126"/>
@@ -5517,7 +5382,7 @@
       <c r="I121" s="126"/>
       <c r="J121" s="129"/>
     </row>
-    <row r="122" spans="2:10">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B122" s="128"/>
       <c r="C122" s="126"/>
       <c r="D122" s="126"/>
@@ -5528,7 +5393,7 @@
       <c r="I122" s="126"/>
       <c r="J122" s="129"/>
     </row>
-    <row r="123" spans="2:10">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B123" s="128"/>
       <c r="C123" s="126"/>
       <c r="D123" s="126"/>
@@ -5539,7 +5404,7 @@
       <c r="I123" s="126"/>
       <c r="J123" s="129"/>
     </row>
-    <row r="124" spans="2:10">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B124" s="128"/>
       <c r="C124" s="126"/>
       <c r="D124" s="126"/>
@@ -5550,7 +5415,7 @@
       <c r="I124" s="126"/>
       <c r="J124" s="129"/>
     </row>
-    <row r="125" spans="2:10">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B125" s="128"/>
       <c r="C125" s="126"/>
       <c r="D125" s="126"/>
@@ -5561,7 +5426,7 @@
       <c r="I125" s="126"/>
       <c r="J125" s="129"/>
     </row>
-    <row r="126" spans="2:10">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B126" s="128"/>
       <c r="C126" s="126"/>
       <c r="D126" s="126"/>
@@ -5572,7 +5437,7 @@
       <c r="I126" s="126"/>
       <c r="J126" s="129"/>
     </row>
-    <row r="127" spans="2:10">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B127" s="128"/>
       <c r="C127" s="126"/>
       <c r="D127" s="126"/>
@@ -5583,7 +5448,7 @@
       <c r="I127" s="126"/>
       <c r="J127" s="129"/>
     </row>
-    <row r="128" spans="2:10">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B128" s="128"/>
       <c r="C128" s="126"/>
       <c r="D128" s="126"/>
@@ -5594,7 +5459,7 @@
       <c r="I128" s="126"/>
       <c r="J128" s="129"/>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B129" s="128"/>
       <c r="C129" s="126"/>
       <c r="D129" s="126"/>
@@ -5605,7 +5470,7 @@
       <c r="I129" s="126"/>
       <c r="J129" s="129"/>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B130" s="128"/>
       <c r="C130" s="126"/>
       <c r="D130" s="126"/>
@@ -5616,7 +5481,7 @@
       <c r="I130" s="126"/>
       <c r="J130" s="129"/>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B131" s="128"/>
       <c r="C131" s="126"/>
       <c r="D131" s="126"/>
@@ -5627,7 +5492,7 @@
       <c r="I131" s="126"/>
       <c r="J131" s="129"/>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" s="128"/>
       <c r="C132" s="126"/>
       <c r="D132" s="126"/>
@@ -5638,7 +5503,7 @@
       <c r="I132" s="126"/>
       <c r="J132" s="129"/>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B133" s="128"/>
       <c r="C133" s="126"/>
       <c r="D133" s="126"/>
@@ -5649,7 +5514,7 @@
       <c r="I133" s="126"/>
       <c r="J133" s="129"/>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B134" s="128"/>
       <c r="C134" s="126"/>
       <c r="D134" s="126"/>
@@ -5659,12 +5524,12 @@
         <v>21.9</v>
       </c>
       <c r="H134" s="149" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I134" s="126"/>
       <c r="J134" s="129"/>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B135" s="128"/>
       <c r="C135" s="126"/>
       <c r="D135" s="126"/>
@@ -5675,7 +5540,7 @@
       <c r="I135" s="126"/>
       <c r="J135" s="129"/>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B136" s="128"/>
       <c r="C136" s="126"/>
       <c r="D136" s="126"/>
@@ -5686,7 +5551,7 @@
       <c r="I136" s="126"/>
       <c r="J136" s="129"/>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B137" s="128"/>
       <c r="C137" s="126"/>
       <c r="D137" s="126"/>
@@ -5700,10 +5565,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>